--- a/PAVD_profiles.xlsx
+++ b/PAVD_profiles.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyang/Documents/GitHub/TLS_Leaf_Angle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24EEA4-CB3E-464B-85B1-158155317880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B924AC-86F3-7145-B191-3E58662F37E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="11560" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAVD_profiles_site_examples" sheetId="1" r:id="rId1"/>
     <sheet name="Gabon" sheetId="3" r:id="rId2"/>
     <sheet name="HF" sheetId="2" r:id="rId3"/>
+    <sheet name="VA" sheetId="4" r:id="rId4"/>
+    <sheet name="CR" sheetId="5" r:id="rId5"/>
+    <sheet name="CO" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PAVD_profiles_site_examples!$B$1:$H$1178</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -933,7 +936,7 @@
   <dimension ref="A1:H1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F1047"/>
+      <selection activeCell="F40" sqref="F40:F952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1955,7 +1958,7 @@
         <v>3.3936251544387999E-6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>2.6535712740629398E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>1.47792766413692E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>5.2222673698120803E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>1.7050189739006899E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>1.9290719140173499E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3203,7 +3206,7 @@
         <v>4.1014902355728999E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>2.9981168834908999E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>4.9535871580772802E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>2.88144471821862E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>5.5915359980271504E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>3.1441179128424597E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>6.2043075718310496E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>4.2649774310793399E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>7.2980549073216197E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>6.1109620316751698E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>8.3085316345398504E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>5.3749488018921501E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>1.10486818976208E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>6.0512441741557399E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>1.82711579481089E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4</v>
       </c>
@@ -6167,7 +6170,7 @@
         <v>7.1680968147853297E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>3.2344515888127402E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4</v>
       </c>
@@ -6557,7 +6560,7 @@
         <v>7.0116739644105197E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>4.0367673354560998E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>6.4353030956788806E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>4.3239772473370901E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>6.0730295476418603E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>3.9752539130735003E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>5.7821303009543398E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>3.5492312461057503E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>5.43584039339019E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>3.7253705712563798E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>4.6059422174535597E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>3.7338291213454597E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>3.2700384301394797E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>3.3034161672622998E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>4</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>2.48395269210923E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>2.9327837470761401E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>6.2112699639682703E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>2.4467025097190499E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>5.34525832400609E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>2.1310038112315601E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>3.8851238548587803E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>2.4467483587221901E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>3.0598851444410598E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>2.54935059505958E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4</v>
       </c>
@@ -11237,7 +11240,7 @@
         <v>1.8700018382810199E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2</v>
       </c>
@@ -11367,7 +11370,7 @@
         <v>2.3337415621900798E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>4</v>
       </c>
@@ -11627,7 +11630,7 @@
         <v>1.17256839536135E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2</v>
       </c>
@@ -11757,7 +11760,7 @@
         <v>2.53943785919142E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4</v>
       </c>
@@ -12017,7 +12020,7 @@
         <v>1.0015816812597601E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2</v>
       </c>
@@ -12147,7 +12150,7 @@
         <v>2.5924145278700801E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>7.6135048156103996E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -12537,7 +12540,7 @@
         <v>2.4005260565034301E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4</v>
       </c>
@@ -12797,7 +12800,7 @@
         <v>6.4330622704764301E-3</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2</v>
       </c>
@@ -12927,7 +12930,7 @@
         <v>2.4456518915624101E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4</v>
       </c>
@@ -13187,7 +13190,7 @@
         <v>5.5103912073679101E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>2.3655692264710999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>4</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>4.6223624924719804E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>2.1266844222202399E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>4</v>
       </c>
@@ -13967,7 +13970,7 @@
         <v>3.5794996525805299E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2</v>
       </c>
@@ -14097,7 +14100,7 @@
         <v>2.0576266463764599E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>4</v>
       </c>
@@ -14357,7 +14360,7 @@
         <v>2.3751803116846301E-3</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>1.8188843776107699E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>4</v>
       </c>
@@ -14747,7 +14750,7 @@
         <v>2.21732008438771E-3</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>1.45465658291187E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>4</v>
       </c>
@@ -15137,7 +15140,7 @@
         <v>2.1330864305515599E-3</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>1.34865375059745E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>4</v>
       </c>
@@ -15527,7 +15530,7 @@
         <v>1.92640312213823E-3</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>1.3097694759523101E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>4</v>
       </c>
@@ -15917,7 +15920,7 @@
         <v>1.8134334290605199E-3</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>2</v>
       </c>
@@ -16047,7 +16050,7 @@
         <v>1.14890021117927E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>4</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>1.70651591398325E-3</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>2</v>
       </c>
@@ -16411,7 +16414,7 @@
         <v>5.7283529973090998E-3</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>4</v>
       </c>
@@ -16697,7 +16700,7 @@
         <v>1.42804413995736E-3</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>2</v>
       </c>
@@ -16801,7 +16804,7 @@
         <v>4.5334004425651702E-3</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>4</v>
       </c>
@@ -17087,7 +17090,7 @@
         <v>1.1642667325837399E-3</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>2</v>
       </c>
@@ -17191,7 +17194,7 @@
         <v>3.8656225318130701E-3</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>4</v>
       </c>
@@ -17477,7 +17480,7 @@
         <v>9.9776773708973093E-4</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>2</v>
       </c>
@@ -17581,7 +17584,7 @@
         <v>3.2427463837789799E-3</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>4</v>
       </c>
@@ -17867,7 +17870,7 @@
         <v>9.846571119235929E-4</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>2</v>
       </c>
@@ -17971,7 +17974,7 @@
         <v>2.56219593437751E-3</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>4</v>
       </c>
@@ -18257,7 +18260,7 @@
         <v>1.0705202856967099E-3</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>2</v>
       </c>
@@ -18361,7 +18364,7 @@
         <v>2.1128027341467599E-3</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>4</v>
       </c>
@@ -18647,7 +18650,7 @@
         <v>9.9656757524615698E-4</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>2</v>
       </c>
@@ -18751,7 +18754,7 @@
         <v>1.68312185626252E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>4</v>
       </c>
@@ -19037,7 +19040,7 @@
         <v>9.55557210939465E-4</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>2</v>
       </c>
@@ -19141,7 +19144,7 @@
         <v>1.41583599944178E-3</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>4</v>
       </c>
@@ -19427,7 +19430,7 @@
         <v>8.9506465518148599E-4</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>2</v>
       </c>
@@ -19531,7 +19534,7 @@
         <v>1.40373557874481E-3</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>4</v>
       </c>
@@ -19817,7 +19820,7 @@
         <v>8.4715784950398004E-4</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>2</v>
       </c>
@@ -19921,7 +19924,7 @@
         <v>1.39840426978512E-3</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>4</v>
       </c>
@@ -20207,7 +20210,7 @@
         <v>1.041973561659E-3</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>2</v>
       </c>
@@ -20311,7 +20314,7 @@
         <v>1.16717273823577E-3</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>4</v>
       </c>
@@ -20597,7 +20600,7 @@
         <v>1.12832950604771E-3</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2</v>
       </c>
@@ -20701,7 +20704,7 @@
         <v>9.5479499811727602E-4</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>4</v>
       </c>
@@ -20987,7 +20990,7 @@
         <v>1.14698918627533E-3</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>2</v>
       </c>
@@ -21091,7 +21094,7 @@
         <v>1.04017035704728E-3</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>4</v>
       </c>
@@ -21377,7 +21380,7 @@
         <v>1.22288921596707E-3</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>2</v>
       </c>
@@ -21481,7 +21484,7 @@
         <v>1.2468542392978601E-3</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>4</v>
       </c>
@@ -21767,7 +21770,7 @@
         <v>1.3317220213150301E-3</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>2</v>
       </c>
@@ -21871,7 +21874,7 @@
         <v>1.3177857561966499E-3</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>4</v>
       </c>
@@ -22157,7 +22160,7 @@
         <v>1.86829819484462E-3</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>2</v>
       </c>
@@ -22261,7 +22264,7 @@
         <v>1.2566235884676901E-3</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>4</v>
       </c>
@@ -22547,7 +22550,7 @@
         <v>2.1574422974055701E-3</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>2</v>
       </c>
@@ -22651,7 +22654,7 @@
         <v>1.2581686964889399E-3</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>4</v>
       </c>
@@ -22937,7 +22940,7 @@
         <v>2.2807176785375098E-3</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2</v>
       </c>
@@ -23041,7 +23044,7 @@
         <v>1.3968397959832201E-3</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>4</v>
       </c>
@@ -23327,7 +23330,7 @@
         <v>2.2058063243078599E-3</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>2</v>
       </c>
@@ -23431,7 +23434,7 @@
         <v>1.63652963596387E-3</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>4</v>
       </c>
@@ -23717,7 +23720,7 @@
         <v>2.0832386753211998E-3</v>
       </c>
     </row>
-    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>2</v>
       </c>
@@ -23821,7 +23824,7 @@
         <v>1.8651635791153301E-3</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>4</v>
       </c>
@@ -24107,7 +24110,7 @@
         <v>2.4095195662942001E-3</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>2</v>
       </c>
@@ -24211,7 +24214,7 @@
         <v>2.1074145076322198E-3</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>4</v>
       </c>
@@ -24497,7 +24500,7 @@
         <v>2.2610567904363201E-3</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>2</v>
       </c>
@@ -24601,7 +24604,7 @@
         <v>2.3366339583026099E-3</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>4</v>
       </c>
@@ -24887,7 +24890,7 @@
         <v>2.16496066314941E-3</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>2</v>
       </c>
@@ -24991,7 +24994,7 @@
         <v>2.437873506493E-3</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>4</v>
       </c>
@@ -25277,7 +25280,7 @@
         <v>2.1102744822049701E-3</v>
       </c>
     </row>
-    <row r="937" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>2</v>
       </c>
@@ -25381,7 +25384,7 @@
         <v>2.6304606359512498E-3</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>4</v>
       </c>
@@ -25667,7 +25670,7 @@
         <v>1.9862975196406601E-3</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>2</v>
       </c>
@@ -25771,7 +25774,7 @@
         <v>3.0852752723365502E-3</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>4</v>
       </c>
@@ -25927,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>4</v>
       </c>
@@ -26005,7 +26008,7 @@
         <v>9.9521343066343005E-4</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>4</v>
       </c>
@@ -26083,7 +26086,7 @@
         <v>1.0089808978296E-3</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>4</v>
       </c>
@@ -26161,7 +26164,7 @@
         <v>1.0538039732723901E-3</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>4</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>1.1393624137549299E-3</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>4</v>
       </c>
@@ -26317,7 +26320,7 @@
         <v>1.2286186393178299E-3</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>4</v>
       </c>
@@ -26395,7 +26398,7 @@
         <v>1.3155824715995201E-3</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>4</v>
       </c>
@@ -26473,7 +26476,7 @@
         <v>1.39904765551037E-3</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>4</v>
       </c>
@@ -26551,7 +26554,7 @@
         <v>1.4682481106908501E-3</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>4</v>
       </c>
@@ -26629,7 +26632,7 @@
         <v>1.49922893011236E-3</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>4</v>
       </c>
@@ -26707,7 +26710,7 @@
         <v>1.54249086357159E-3</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>4</v>
       </c>
@@ -26785,7 +26788,7 @@
         <v>1.64958952527683E-3</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>4</v>
       </c>
@@ -26863,7 +26866,7 @@
         <v>1.76578378269703E-3</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>4</v>
       </c>
@@ -26941,7 +26944,7 @@
         <v>1.78049388250542E-3</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>4</v>
       </c>
@@ -27019,7 +27022,7 @@
         <v>1.75817180574704E-3</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>4</v>
       </c>
@@ -27097,7 +27100,7 @@
         <v>1.79890376130539E-3</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>4</v>
       </c>
@@ -27175,7 +27178,7 @@
         <v>1.88535683507372E-3</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>4</v>
       </c>
@@ -27253,7 +27256,7 @@
         <v>1.9407162793961101E-3</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>4</v>
       </c>
@@ -27331,7 +27334,7 @@
         <v>1.9590428349596802E-3</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>4</v>
       </c>
@@ -27409,7 +27412,7 @@
         <v>1.96458680553233E-3</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>4</v>
       </c>
@@ -27487,7 +27490,7 @@
         <v>1.90301334579146E-3</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>4</v>
       </c>
@@ -27565,7 +27568,7 @@
         <v>1.81502406854891E-3</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>4</v>
       </c>
@@ -27643,7 +27646,7 @@
         <v>1.74142466187235E-3</v>
       </c>
     </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>4</v>
       </c>
@@ -27721,7 +27724,7 @@
         <v>1.6813663701325701E-3</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>4</v>
       </c>
@@ -27799,7 +27802,7 @@
         <v>1.6459606594531799E-3</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>4</v>
       </c>
@@ -27877,7 +27880,7 @@
         <v>1.6719036368190001E-3</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>4</v>
       </c>
@@ -27955,7 +27958,7 @@
         <v>1.7638152707084001E-3</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>4</v>
       </c>
@@ -28033,7 +28036,7 @@
         <v>1.8573726905679001E-3</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>4</v>
       </c>
@@ -28111,7 +28114,7 @@
         <v>1.8732930824609301E-3</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>4</v>
       </c>
@@ -28189,7 +28192,7 @@
         <v>1.7846880830154101E-3</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>4</v>
       </c>
@@ -28241,7 +28244,7 @@
         <v>1.83248057726601E-3</v>
       </c>
     </row>
-    <row r="1051" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>4</v>
       </c>
@@ -28293,7 +28296,7 @@
         <v>1.76366674468338E-3</v>
       </c>
     </row>
-    <row r="1053" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>4</v>
       </c>
@@ -28345,7 +28348,7 @@
         <v>1.6664127849535301E-3</v>
       </c>
     </row>
-    <row r="1055" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>4</v>
       </c>
@@ -28397,7 +28400,7 @@
         <v>1.54003320673221E-3</v>
       </c>
     </row>
-    <row r="1057" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>4</v>
       </c>
@@ -28449,7 +28452,7 @@
         <v>1.4661174170881701E-3</v>
       </c>
     </row>
-    <row r="1059" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>4</v>
       </c>
@@ -28501,7 +28504,7 @@
         <v>1.4537259167573E-3</v>
       </c>
     </row>
-    <row r="1061" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>4</v>
       </c>
@@ -28553,7 +28556,7 @@
         <v>1.43596610143013E-3</v>
       </c>
     </row>
-    <row r="1063" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>4</v>
       </c>
@@ -28605,7 +28608,7 @@
         <v>1.3755367782719401E-3</v>
       </c>
     </row>
-    <row r="1065" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>4</v>
       </c>
@@ -28657,7 +28660,7 @@
         <v>1.3116892325259299E-3</v>
       </c>
     </row>
-    <row r="1067" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>4</v>
       </c>
@@ -28709,7 +28712,7 @@
         <v>1.22064952292166E-3</v>
       </c>
     </row>
-    <row r="1069" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>4</v>
       </c>
@@ -28761,7 +28764,7 @@
         <v>1.2405158376884899E-3</v>
       </c>
     </row>
-    <row r="1071" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>4</v>
       </c>
@@ -28813,7 +28816,7 @@
         <v>1.1629720782363601E-3</v>
       </c>
     </row>
-    <row r="1073" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073">
         <v>4</v>
       </c>
@@ -28865,7 +28868,7 @@
         <v>1.13158592416622E-3</v>
       </c>
     </row>
-    <row r="1075" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075">
         <v>4</v>
       </c>
@@ -28917,7 +28920,7 @@
         <v>1.0961510700086201E-3</v>
       </c>
     </row>
-    <row r="1077" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077">
         <v>4</v>
       </c>
@@ -28969,7 +28972,7 @@
         <v>1.05772400049465E-3</v>
       </c>
     </row>
-    <row r="1079" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079">
         <v>4</v>
       </c>
@@ -29021,7 +29024,7 @@
         <v>1.0465804399494101E-3</v>
       </c>
     </row>
-    <row r="1081" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081">
         <v>4</v>
       </c>
@@ -29073,7 +29076,7 @@
         <v>9.7664260532165001E-4</v>
       </c>
     </row>
-    <row r="1083" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083">
         <v>4</v>
       </c>
@@ -29125,7 +29128,7 @@
         <v>8.5290284618414597E-4</v>
       </c>
     </row>
-    <row r="1085" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085">
         <v>4</v>
       </c>
@@ -29177,7 +29180,7 @@
         <v>8.1114898596838E-4</v>
       </c>
     </row>
-    <row r="1087" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087">
         <v>4</v>
       </c>
@@ -29229,7 +29232,7 @@
         <v>8.2456191189802001E-4</v>
       </c>
     </row>
-    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089">
         <v>4</v>
       </c>
@@ -29281,7 +29284,7 @@
         <v>9.3684492409726002E-4</v>
       </c>
     </row>
-    <row r="1091" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091">
         <v>4</v>
       </c>
@@ -29333,7 +29336,7 @@
         <v>8.8600389092868804E-4</v>
       </c>
     </row>
-    <row r="1093" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093">
         <v>4</v>
       </c>
@@ -29385,7 +29388,7 @@
         <v>7.8988718047050504E-4</v>
       </c>
     </row>
-    <row r="1095" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095">
         <v>4</v>
       </c>
@@ -29437,7 +29440,7 @@
         <v>7.8169976192201101E-4</v>
       </c>
     </row>
-    <row r="1097" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097">
         <v>4</v>
       </c>
@@ -29489,7 +29492,7 @@
         <v>8.1692049629761504E-4</v>
       </c>
     </row>
-    <row r="1099" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1099">
         <v>4</v>
       </c>
@@ -29541,7 +29544,7 @@
         <v>7.5925539604756098E-4</v>
       </c>
     </row>
-    <row r="1101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101">
         <v>4</v>
       </c>
@@ -29593,7 +29596,7 @@
         <v>6.4315902964300303E-4</v>
       </c>
     </row>
-    <row r="1103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1103">
         <v>4</v>
       </c>
@@ -29645,7 +29648,7 @@
         <v>5.5564547973633595E-4</v>
       </c>
     </row>
-    <row r="1105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1105">
         <v>4</v>
       </c>
@@ -29697,7 +29700,7 @@
         <v>5.2551583947507295E-4</v>
       </c>
     </row>
-    <row r="1107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107">
         <v>4</v>
       </c>
@@ -29749,7 +29752,7 @@
         <v>6.0637650284223795E-4</v>
       </c>
     </row>
-    <row r="1109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1109">
         <v>4</v>
       </c>
@@ -29801,7 +29804,7 @@
         <v>6.08771050590358E-4</v>
       </c>
     </row>
-    <row r="1111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111">
         <v>4</v>
       </c>
@@ -29853,7 +29856,7 @@
         <v>6.23498065408823E-4</v>
       </c>
     </row>
-    <row r="1113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113">
         <v>4</v>
       </c>
@@ -29905,7 +29908,7 @@
         <v>6.3354278223380904E-4</v>
       </c>
     </row>
-    <row r="1115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115">
         <v>4</v>
       </c>
@@ -29957,7 +29960,7 @@
         <v>6.0068543592097195E-4</v>
       </c>
     </row>
-    <row r="1117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117">
         <v>4</v>
       </c>
@@ -30009,7 +30012,7 @@
         <v>5.8597256232204205E-4</v>
       </c>
     </row>
-    <row r="1119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1119">
         <v>4</v>
       </c>
@@ -30061,7 +30064,7 @@
         <v>5.9250687707338204E-4</v>
       </c>
     </row>
-    <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121">
         <v>4</v>
       </c>
@@ -30113,7 +30116,7 @@
         <v>5.4064441812388204E-4</v>
       </c>
     </row>
-    <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123">
         <v>4</v>
       </c>
@@ -30165,7 +30168,7 @@
         <v>5.0584185818513096E-4</v>
       </c>
     </row>
-    <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125">
         <v>4</v>
       </c>
@@ -30217,7 +30220,7 @@
         <v>5.0523324991819996E-4</v>
       </c>
     </row>
-    <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127">
         <v>4</v>
       </c>
@@ -30269,7 +30272,7 @@
         <v>5.5270540195672996E-4</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129">
         <v>4</v>
       </c>
@@ -30321,7 +30324,7 @@
         <v>5.9788271128458895E-4</v>
       </c>
     </row>
-    <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131">
         <v>4</v>
       </c>
@@ -30373,7 +30376,7 @@
         <v>6.4803368565099703E-4</v>
       </c>
     </row>
-    <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1133">
         <v>4</v>
       </c>
@@ -30425,7 +30428,7 @@
         <v>6.2697517057055897E-4</v>
       </c>
     </row>
-    <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135">
         <v>4</v>
       </c>
@@ -30477,7 +30480,7 @@
         <v>4.9708129523081204E-4</v>
       </c>
     </row>
-    <row r="1137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137">
         <v>4</v>
       </c>
@@ -30529,7 +30532,7 @@
         <v>6.7682647215416098E-4</v>
       </c>
     </row>
-    <row r="1139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1139">
         <v>4</v>
       </c>
@@ -30581,7 +30584,7 @@
         <v>8.0983507997039702E-4</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141">
         <v>4</v>
       </c>
@@ -30633,7 +30636,7 @@
         <v>7.6547402974958901E-4</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143">
         <v>4</v>
       </c>
@@ -30685,7 +30688,7 @@
         <v>5.6138138622657005E-4</v>
       </c>
     </row>
-    <row r="1145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1145">
         <v>4</v>
       </c>
@@ -30737,7 +30740,7 @@
         <v>4.1051750701447798E-4</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>4</v>
       </c>
@@ -30789,7 +30792,7 @@
         <v>4.5109381255157698E-4</v>
       </c>
     </row>
-    <row r="1149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1149">
         <v>4</v>
       </c>
@@ -30841,7 +30844,7 @@
         <v>6.6912309401542097E-4</v>
       </c>
     </row>
-    <row r="1151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1151">
         <v>4</v>
       </c>
@@ -30893,7 +30896,7 @@
         <v>9.2351160713994196E-4</v>
       </c>
     </row>
-    <row r="1153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1153">
         <v>4</v>
       </c>
@@ -30945,7 +30948,7 @@
         <v>8.5732577427193404E-4</v>
       </c>
     </row>
-    <row r="1155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1155">
         <v>4</v>
       </c>
@@ -30997,7 +31000,7 @@
         <v>7.9822253203837702E-4</v>
       </c>
     </row>
-    <row r="1157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1157">
         <v>4</v>
       </c>
@@ -31049,7 +31052,7 @@
         <v>1.0388752480149301E-3</v>
       </c>
     </row>
-    <row r="1159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159">
         <v>4</v>
       </c>
@@ -31101,7 +31104,7 @@
         <v>1.2254870546511999E-3</v>
       </c>
     </row>
-    <row r="1161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1161">
         <v>4</v>
       </c>
@@ -31153,7 +31156,7 @@
         <v>1.21248108097191E-3</v>
       </c>
     </row>
-    <row r="1163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1163">
         <v>4</v>
       </c>
@@ -31205,7 +31208,7 @@
         <v>7.6999502314968203E-4</v>
       </c>
     </row>
-    <row r="1165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1165">
         <v>4</v>
       </c>
@@ -31257,7 +31260,7 @@
         <v>6.0846008778312703E-4</v>
       </c>
     </row>
-    <row r="1167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1167">
         <v>4</v>
       </c>
@@ -31309,7 +31312,7 @@
         <v>5.21967171041021E-4</v>
       </c>
     </row>
-    <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1169">
         <v>4</v>
       </c>
@@ -31361,7 +31364,7 @@
         <v>4.59118470772611E-4</v>
       </c>
     </row>
-    <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171">
         <v>4</v>
       </c>
@@ -31413,7 +31416,7 @@
         <v>3.50804366749918E-4</v>
       </c>
     </row>
-    <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173">
         <v>4</v>
       </c>
@@ -31465,7 +31468,7 @@
         <v>3.04396804567334E-4</v>
       </c>
     </row>
-    <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175">
         <v>4</v>
       </c>
@@ -31517,7 +31520,7 @@
         <v>2.6272465998715601E-4</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177">
         <v>4</v>
       </c>
@@ -31573,7 +31576,7 @@
   <autoFilter ref="B1:H1178" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Gabon - Tall Mangrove"/>
+        <filter val="Harvard Forest - Hemlock"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -31590,7 +31593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839CDC42-FA2F-614C-9421-F72BA6983D07}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -32865,8 +32868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32879,24 +32882,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>6.3676821326591799E-5</v>
+        <v>1.17558623786636E-5</v>
       </c>
       <c r="D1" s="1">
-        <v>6.5911608866838796E-5</v>
+        <v>1.18478792661191E-5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>6.5439951787300498E-5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.7374708282520897E-5</v>
+      <c r="B2">
+        <v>4.98617063129518E-3</v>
+      </c>
+      <c r="C2">
+        <v>9.1922405363645699E-4</v>
       </c>
       <c r="D2">
-        <v>1.32218505605994E-4</v>
+        <v>9.3231388173878403E-4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -32904,13 +32907,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4571680949538499E-3</v>
+        <v>5.41852614506469E-2</v>
       </c>
       <c r="C3">
-        <v>5.6823761894878803E-4</v>
+        <v>1.8090464830447201E-2</v>
       </c>
       <c r="D3">
-        <v>6.7111745252862399E-4</v>
+        <v>1.8912066912730799E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -32918,13 +32921,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.8109924388644899E-2</v>
+        <v>0.113847216356236</v>
       </c>
       <c r="C4">
-        <v>1.9976708575234502E-2</v>
+        <v>6.6825011330643794E-2</v>
       </c>
       <c r="D4">
-        <v>2.18710479562832E-2</v>
+        <v>7.1846132725115502E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -32932,13 +32935,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.9938051346616E-2</v>
+        <v>0.109404978999099</v>
       </c>
       <c r="C5">
-        <v>4.4530607507974197E-2</v>
+        <v>0.10385781538472599</v>
       </c>
       <c r="D5">
-        <v>4.7106720537901402E-2</v>
+        <v>0.11280242109265499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -32946,13 +32949,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.9307925842707899E-2</v>
+        <v>0.124957317559883</v>
       </c>
       <c r="C6">
-        <v>3.1663892891664901E-2</v>
+        <v>9.9816173023112797E-2</v>
       </c>
       <c r="D6">
-        <v>3.2609597301363702E-2</v>
+        <v>0.107343646619824</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -32960,13 +32963,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.6535014617168806E-2</v>
+        <v>0.187199024595296</v>
       </c>
       <c r="C7">
-        <v>1.7791453010115199E-2</v>
+        <v>0.10891543940061101</v>
       </c>
       <c r="D7">
-        <v>1.8368308588309401E-2</v>
+        <v>0.11645633354212601</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -32974,13 +32977,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.5732589484847799E-2</v>
+        <v>0.21646403294572999</v>
       </c>
       <c r="C8">
-        <v>2.7539605403937201E-2</v>
+        <v>0.14774315207527999</v>
       </c>
       <c r="D8">
-        <v>2.8170480464529E-2</v>
+        <v>0.15927332050597801</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -32988,13 +32991,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.0845620480743401E-2</v>
+        <v>0.21168993443971501</v>
       </c>
       <c r="C9">
-        <v>3.5851148307090498E-2</v>
+        <v>0.184151015835187</v>
       </c>
       <c r="D9">
-        <v>3.6759966851074501E-2</v>
+        <v>0.19905743082612801</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -33002,13 +33005,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.0429465279751199E-2</v>
+        <v>0.18619368825917301</v>
       </c>
       <c r="C10">
-        <v>3.67641280695876E-2</v>
+        <v>0.19735240058081199</v>
       </c>
       <c r="D10">
-        <v>3.8018845289941199E-2</v>
+        <v>0.211918782418962</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -33016,13 +33019,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.3476480353307598E-2</v>
+        <v>0.20962124717285799</v>
       </c>
       <c r="C11">
-        <v>5.1507771289616797E-2</v>
+        <v>0.219346610772746</v>
       </c>
       <c r="D11">
-        <v>5.8609052871012597E-2</v>
+        <v>0.234465754612666</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -33030,13 +33033,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.100363589399822</v>
+        <v>0.248310157535616</v>
       </c>
       <c r="C12">
-        <v>5.8737001454342998E-2</v>
+        <v>0.28448487901679897</v>
       </c>
       <c r="D12">
-        <v>6.6518792229497498E-2</v>
+        <v>0.309870504703467</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -33044,13 +33047,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.125995533288944</v>
+        <v>0.24289151104933801</v>
       </c>
       <c r="C13">
-        <v>4.73245605348123E-2</v>
+        <v>0.364031458084072</v>
       </c>
       <c r="D13">
-        <v>5.0039671426173903E-2</v>
+        <v>0.405548514814071</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -33058,13 +33061,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.109282098023453</v>
+        <v>0.22292543847642199</v>
       </c>
       <c r="C14">
-        <v>4.7092550241416301E-2</v>
+        <v>0.37925817370207898</v>
       </c>
       <c r="D14">
-        <v>5.0748182504495698E-2</v>
+        <v>0.42646902077467702</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -33072,13 +33075,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.09921222091809E-2</v>
+        <v>0.21037591464765501</v>
       </c>
       <c r="C15">
-        <v>6.0147824982287698E-2</v>
+        <v>0.39455595565766</v>
       </c>
       <c r="D15">
-        <v>6.6248179941231902E-2</v>
+        <v>0.44374311973268099</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -33086,13 +33089,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.6621610063978704E-2</v>
+        <v>0.200298869144729</v>
       </c>
       <c r="C16">
-        <v>9.4774659968032901E-2</v>
+        <v>0.38111281896042598</v>
       </c>
       <c r="D16">
-        <v>0.105793719540693</v>
+        <v>0.42511534201260098</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -33100,13 +33103,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.102018316316633</v>
+        <v>0.18830303486374</v>
       </c>
       <c r="C17">
-        <v>0.114096698175184</v>
+        <v>0.34411096329859397</v>
       </c>
       <c r="D17">
-        <v>0.128940041046816</v>
+        <v>0.37807532983584102</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -33114,13 +33117,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.107858399357096</v>
+        <v>0.15955451874712101</v>
       </c>
       <c r="C18">
-        <v>9.1143635526715894E-2</v>
+        <v>0.333655559850631</v>
       </c>
       <c r="D18">
-        <v>9.9554997314231106E-2</v>
+        <v>0.36744228109045701</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -33128,13 +33131,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.117899587841722</v>
+        <v>0.113277454074087</v>
       </c>
       <c r="C19">
-        <v>7.0034011970072294E-2</v>
+        <v>0.28326685247491701</v>
       </c>
       <c r="D19">
-        <v>7.28312322253825E-2</v>
+        <v>0.311602219730649</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -33142,13 +33145,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.12634404115367501</v>
+        <v>8.6046645326613394E-2</v>
       </c>
       <c r="C20">
-        <v>6.9128444927559499E-2</v>
+        <v>0.24661434965874299</v>
       </c>
       <c r="D20">
-        <v>7.1589446315406993E-2</v>
+        <v>0.27286734135624502</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -33156,13 +33159,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.121597258590969</v>
+        <v>6.5217470268200295E-2</v>
       </c>
       <c r="C21">
-        <v>8.0064159495060405E-2</v>
+        <v>0.215164703142391</v>
       </c>
       <c r="D21">
-        <v>8.4259483124216397E-2</v>
+        <v>0.23939868295616601</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -33170,13 +33173,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.113582596663608</v>
+        <v>4.8568793778239798E-2</v>
       </c>
       <c r="C22">
-        <v>9.4752923652037399E-2</v>
+        <v>0.18516517993518</v>
       </c>
       <c r="D22">
-        <v>0.10024551118205299</v>
+        <v>0.206741496149598</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -33184,13 +33187,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.12642274006293699</v>
+        <v>3.6076776588270701E-2</v>
       </c>
       <c r="C23">
-        <v>0.107693803546092</v>
+        <v>0.13458463820626501</v>
       </c>
       <c r="D23">
-        <v>0.11289870239593</v>
+        <v>0.153723559428912</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -33198,13 +33201,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.146506047672506</v>
+        <v>2.5184498130928601E-2</v>
       </c>
       <c r="C24">
-        <v>0.112815198493813</v>
+        <v>0.105997530709943</v>
       </c>
       <c r="D24">
-        <v>0.118989394734745</v>
+        <v>0.121989344928336</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -33212,13 +33215,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.16033455807571401</v>
+        <v>2.0272387236361E-2</v>
       </c>
       <c r="C25">
-        <v>0.130701165857673</v>
+        <v>6.4778763882998705E-2</v>
       </c>
       <c r="D25">
-        <v>0.14067829126318099</v>
+        <v>7.4073289533035394E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -33226,13 +33229,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.17062677845176</v>
+        <v>1.7830466917727598E-2</v>
       </c>
       <c r="C26">
-        <v>0.15856798969395</v>
+        <v>4.0618960722307397E-2</v>
       </c>
       <c r="D26">
-        <v>0.17466234959995899</v>
+        <v>4.5814127572722199E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -33240,13 +33243,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.14866751755574201</v>
+        <v>1.5416818904712E-2</v>
       </c>
       <c r="C27">
-        <v>0.17695174647154099</v>
+        <v>3.4695807197443099E-2</v>
       </c>
       <c r="D27">
-        <v>0.19784617288825099</v>
+        <v>3.9106506245041597E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -33254,13 +33257,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.119522838761358</v>
+        <v>1.24488002818643E-2</v>
       </c>
       <c r="C28">
-        <v>0.18743752538015601</v>
+        <v>2.6373954328615098E-2</v>
       </c>
       <c r="D28">
-        <v>0.20993591804240799</v>
+        <v>2.91799177780411E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -33268,13 +33271,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.117761979902788</v>
+        <v>8.4745548905393805E-3</v>
       </c>
       <c r="C29">
-        <v>0.18473151081505201</v>
+        <v>2.2284781401439201E-2</v>
       </c>
       <c r="D29">
-        <v>0.19768133368337901</v>
+        <v>2.4582489504833001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -33282,13 +33285,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.10985979569453599</v>
+        <v>5.9243756828670797E-3</v>
       </c>
       <c r="C30">
-        <v>0.18449974957030299</v>
+        <v>1.9088555081484E-2</v>
       </c>
       <c r="D30">
-        <v>0.19309724158663599</v>
+        <v>2.11022590622972E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -33296,13 +33299,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.3994610786292898E-2</v>
+        <v>6.3261516444080802E-3</v>
       </c>
       <c r="C31">
-        <v>0.160832159026639</v>
+        <v>1.6012333375924399E-2</v>
       </c>
       <c r="D31">
-        <v>0.165260942503273</v>
+        <v>1.7756804545666399E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -33310,13 +33313,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>8.2657878328826803E-2</v>
+        <v>6.4663472950814401E-3</v>
       </c>
       <c r="C32">
-        <v>0.14375608640642401</v>
+        <v>1.23997505278892E-2</v>
       </c>
       <c r="D32">
-        <v>0.147974134589409</v>
+        <v>1.37656830802266E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -33324,13 +33327,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7.0108896178600305E-2</v>
+        <v>6.2460201204380698E-3</v>
       </c>
       <c r="C33">
-        <v>0.13527243649766099</v>
+        <v>8.2278659539501108E-3</v>
       </c>
       <c r="D33">
-        <v>0.13770757885403501</v>
+        <v>8.7145607926053699E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -33338,13 +33341,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.3058358261357998E-2</v>
+        <v>5.1364349606712904E-3</v>
       </c>
       <c r="C34">
-        <v>0.117605984910267</v>
+        <v>7.6810220856048401E-3</v>
       </c>
       <c r="D34">
-        <v>0.119876969369896</v>
+        <v>8.1940643461644695E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -33352,13 +33355,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.0439735684247198E-2</v>
+        <v>3.50335459232105E-3</v>
       </c>
       <c r="C35">
-        <v>9.3317362222080702E-2</v>
+        <v>7.3892281493020996E-3</v>
       </c>
       <c r="D35">
-        <v>9.5359170834607002E-2</v>
+        <v>7.9346106458866601E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -33366,13 +33369,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.2801707031805398E-2</v>
+        <v>3.0873800067121602E-3</v>
       </c>
       <c r="C36">
-        <v>7.5477506015948603E-2</v>
+        <v>6.6732561668054703E-3</v>
       </c>
       <c r="D36">
-        <v>7.7347848290969204E-2</v>
+        <v>7.1423968615007697E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -33380,13 +33383,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.5504964532982899E-2</v>
+        <v>3.6565652886378299E-3</v>
       </c>
       <c r="C37">
-        <v>6.2580818474223102E-2</v>
+        <v>6.2819176705533599E-3</v>
       </c>
       <c r="D37">
-        <v>6.4230917222877507E-2</v>
+        <v>6.6799770664460198E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -33394,13 +33397,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.98435968700576E-2</v>
+        <v>4.0339189534639398E-3</v>
       </c>
       <c r="C38">
-        <v>3.2866158677254002E-2</v>
+        <v>5.9115445338876497E-3</v>
       </c>
       <c r="D38">
-        <v>3.3011961432631999E-2</v>
+        <v>6.1534678381071099E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -33408,13 +33411,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.57041597951562E-2</v>
+        <v>3.7465241991865299E-3</v>
       </c>
       <c r="C39">
-        <v>2.2028137115791501E-2</v>
+        <v>4.9468900117142899E-3</v>
       </c>
       <c r="D39">
-        <v>2.2084101724209299E-2</v>
+        <v>5.1634760552969399E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -33422,13 +33425,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.3390909255966499E-2</v>
+        <v>3.0205828800216098E-3</v>
       </c>
       <c r="C40">
-        <v>1.76068891712555E-2</v>
+        <v>4.0331382687944801E-3</v>
       </c>
       <c r="D40">
-        <v>1.7655561113203402E-2</v>
+        <v>4.2120531223120801E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -33436,13 +33439,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.1233202985530899E-2</v>
+        <v>2.8109541439772E-3</v>
       </c>
       <c r="C41">
-        <v>1.45263496462807E-2</v>
+        <v>3.45636882958488E-3</v>
       </c>
       <c r="D41">
-        <v>1.4578006087183499E-2</v>
+        <v>3.59034757885695E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -33450,13 +33453,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.8757070745765203E-3</v>
+        <v>3.1191100319446501E-3</v>
       </c>
       <c r="C42">
-        <v>1.17723942761019E-2</v>
+        <v>3.4109522917713901E-3</v>
       </c>
       <c r="D42">
-        <v>1.18211450739815E-2</v>
+        <v>3.5356477977621001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -33464,13 +33467,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.3189633638252498E-3</v>
+        <v>3.4925005741022201E-3</v>
       </c>
       <c r="C43">
-        <v>8.3501158188588106E-3</v>
+        <v>3.7083910507196998E-3</v>
       </c>
       <c r="D43">
-        <v>8.3559279422954404E-3</v>
+        <v>3.7881349231328899E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -33478,13 +33481,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.8305051407526697E-3</v>
+        <v>3.7328442515248699E-3</v>
       </c>
       <c r="C44">
-        <v>6.9292572470656599E-3</v>
+        <v>3.45221134700413E-3</v>
       </c>
       <c r="D44">
-        <v>6.93320058388904E-3</v>
+        <v>3.5247096125655898E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -33492,13 +33495,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.9045997724364602E-3</v>
+        <v>4.2365502887306604E-3</v>
       </c>
       <c r="C45">
-        <v>6.0096601468858802E-3</v>
+        <v>3.3101472777719299E-3</v>
       </c>
       <c r="D45">
-        <v>6.0121388089101196E-3</v>
+        <v>3.3790986175185698E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -33506,13 +33509,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.8626826855562404E-3</v>
+        <v>4.5774895622416904E-3</v>
       </c>
       <c r="C46">
-        <v>5.5390402041504997E-3</v>
+        <v>3.1005949176668999E-3</v>
       </c>
       <c r="D46">
-        <v>5.5428623395479002E-3</v>
+        <v>3.1541144087013401E-3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -33520,13 +33523,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.84421448957817E-3</v>
+        <v>5.0090199755610798E-3</v>
       </c>
       <c r="C47">
-        <v>5.3089523009958303E-3</v>
+        <v>2.9346408747433599E-3</v>
       </c>
       <c r="D47">
-        <v>5.3141451387082803E-3</v>
+        <v>2.9747475738266501E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -33534,13 +33537,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.0432049676673004E-3</v>
+        <v>5.7590968166756403E-3</v>
       </c>
       <c r="C48">
-        <v>4.20178648745288E-3</v>
+        <v>3.60950229787379E-3</v>
       </c>
       <c r="D48">
-        <v>4.2125217675326896E-3</v>
+        <v>3.6215811766436802E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -33548,13 +33551,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.3075068951035E-3</v>
+        <v>6.15588461390315E-3</v>
       </c>
       <c r="C49">
-        <v>3.43933962403222E-3</v>
+        <v>3.9086480643074403E-3</v>
       </c>
       <c r="D49">
-        <v>3.44811662617211E-3</v>
+        <v>3.9205040109856803E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -33562,13 +33565,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.6032558138658901E-3</v>
+        <v>6.3754888590736797E-3</v>
       </c>
       <c r="C50">
-        <v>3.29931804858023E-3</v>
+        <v>3.9732870927219202E-3</v>
       </c>
       <c r="D50">
-        <v>3.3111588684232099E-3</v>
+        <v>3.9841814555679296E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -33576,13 +33579,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.3192297841930802E-3</v>
+        <v>6.6306726617203996E-3</v>
       </c>
       <c r="C51">
-        <v>3.3043228206049999E-3</v>
+        <v>4.2362125081660696E-3</v>
       </c>
       <c r="D51">
-        <v>3.3216175462652199E-3</v>
+        <v>4.2491664969857403E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -33590,13 +33593,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.5649437664463397E-3</v>
+        <v>6.96441389469516E-3</v>
       </c>
       <c r="C52">
-        <v>3.2659879967599599E-3</v>
+        <v>4.6132204049518996E-3</v>
       </c>
       <c r="D52">
-        <v>3.2850575448307401E-3</v>
+        <v>4.6278890207246803E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -33604,13 +33607,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.3530718024311103E-3</v>
+        <v>7.7554938376364702E-3</v>
       </c>
       <c r="C53">
-        <v>3.8478622188649401E-3</v>
+        <v>6.4719747943201896E-3</v>
       </c>
       <c r="D53">
-        <v>3.8847079192644899E-3</v>
+        <v>6.4750298824196098E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -33618,13 +33621,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.3584242136230902E-3</v>
+        <v>8.2390046770993708E-3</v>
       </c>
       <c r="C54">
-        <v>4.0143716657078101E-3</v>
+        <v>7.4735993470091402E-3</v>
       </c>
       <c r="D54">
-        <v>4.0511900608837196E-3</v>
+        <v>7.4767202370046304E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -33632,13 +33635,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.8387949933541502E-3</v>
+        <v>7.9556503624700903E-3</v>
       </c>
       <c r="C55">
-        <v>4.0365999560854097E-3</v>
+        <v>7.9006377938950004E-3</v>
       </c>
       <c r="D55">
-        <v>4.07766495525107E-3</v>
+        <v>7.9035087744161701E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -33646,13 +33649,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.6691049551632596E-3</v>
+        <v>7.7596091728996302E-3</v>
       </c>
       <c r="C56">
-        <v>4.3723014431119797E-3</v>
+        <v>7.6411372507159498E-3</v>
       </c>
       <c r="D56">
-        <v>4.4205731746556499E-3</v>
+        <v>7.6439509942300404E-3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -33660,13 +33663,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6.4611161669095299E-3</v>
+        <v>8.0804870209889596E-3</v>
       </c>
       <c r="C57">
-        <v>4.7617637173694403E-3</v>
+        <v>7.21655045989761E-3</v>
       </c>
       <c r="D57">
-        <v>4.81687868583827E-3</v>
+        <v>7.2196349098604699E-3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -33674,13 +33677,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.3002979996534901E-3</v>
+        <v>8.2635969432531906E-3</v>
       </c>
       <c r="C58">
-        <v>7.5645092171865496E-3</v>
+        <v>8.3468206213057703E-3</v>
       </c>
       <c r="D58">
-        <v>7.6904904376784598E-3</v>
+        <v>8.3544660081422799E-3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -33688,13 +33691,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.09433746894179E-3</v>
+        <v>7.7544346364065804E-3</v>
       </c>
       <c r="C59">
-        <v>8.3872864359400608E-3</v>
+        <v>7.8325304796686493E-3</v>
       </c>
       <c r="D59">
-        <v>8.5269703931494904E-3</v>
+        <v>7.8397047952737994E-3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -33702,13 +33705,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>8.4450415513439604E-3</v>
+        <v>7.4248670019236096E-3</v>
       </c>
       <c r="C60">
-        <v>8.7506831444002699E-3</v>
+        <v>7.4996437299255803E-3</v>
       </c>
       <c r="D60">
-        <v>8.8964192008974905E-3</v>
+        <v>7.5065131332673002E-3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -33716,13 +33719,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>9.1121829375549902E-3</v>
+        <v>7.2373173492816497E-3</v>
       </c>
       <c r="C61">
-        <v>9.4419696049530908E-3</v>
+        <v>7.3102052421902403E-3</v>
       </c>
       <c r="D61">
-        <v>9.5992185183360404E-3</v>
+        <v>7.31690112670448E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -33730,6 +33733,889 @@
         <v>60</v>
       </c>
       <c r="B62">
+        <v>6.8121306592836498E-3</v>
+      </c>
+      <c r="C62">
+        <v>6.8807364459313397E-3</v>
+      </c>
+      <c r="D62">
+        <v>6.8870389525099596E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA6DA1-DEA8-F342-A1E1-DCA863353CBA}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>6.3676821326591799E-5</v>
+      </c>
+      <c r="D1" s="1">
+        <v>6.5911608866838796E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.5439951787300498E-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.7374708282520897E-5</v>
+      </c>
+      <c r="D2">
+        <v>1.32218505605994E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.4571680949538499E-3</v>
+      </c>
+      <c r="C3">
+        <v>5.6823761894878803E-4</v>
+      </c>
+      <c r="D3">
+        <v>6.7111745252862399E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.8109924388644899E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.9976708575234502E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.18710479562832E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.9938051346616E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.4530607507974197E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.7106720537901402E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.9307925842707899E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.1663892891664901E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.2609597301363702E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6.6535014617168806E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.7791453010115199E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.8368308588309401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8.5732589484847799E-2</v>
+      </c>
+      <c r="C8">
+        <v>2.7539605403937201E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.8170480464529E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7.0845620480743401E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.5851148307090498E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.6759966851074501E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4.0429465279751199E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.67641280695876E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.8018845289941199E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.3476480353307598E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.1507771289616797E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.8609052871012597E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.100363589399822</v>
+      </c>
+      <c r="C12">
+        <v>5.8737001454342998E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.6518792229497498E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.125995533288944</v>
+      </c>
+      <c r="C13">
+        <v>4.73245605348123E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.0039671426173903E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.109282098023453</v>
+      </c>
+      <c r="C14">
+        <v>4.7092550241416301E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.0748182504495698E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>7.09921222091809E-2</v>
+      </c>
+      <c r="C15">
+        <v>6.0147824982287698E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.6248179941231902E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.6621610063978704E-2</v>
+      </c>
+      <c r="C16">
+        <v>9.4774659968032901E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.105793719540693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.102018316316633</v>
+      </c>
+      <c r="C17">
+        <v>0.114096698175184</v>
+      </c>
+      <c r="D17">
+        <v>0.128940041046816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.107858399357096</v>
+      </c>
+      <c r="C18">
+        <v>9.1143635526715894E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.9554997314231106E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.117899587841722</v>
+      </c>
+      <c r="C19">
+        <v>7.0034011970072294E-2</v>
+      </c>
+      <c r="D19">
+        <v>7.28312322253825E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.12634404115367501</v>
+      </c>
+      <c r="C20">
+        <v>6.9128444927559499E-2</v>
+      </c>
+      <c r="D20">
+        <v>7.1589446315406993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.121597258590969</v>
+      </c>
+      <c r="C21">
+        <v>8.0064159495060405E-2</v>
+      </c>
+      <c r="D21">
+        <v>8.4259483124216397E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.113582596663608</v>
+      </c>
+      <c r="C22">
+        <v>9.4752923652037399E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.10024551118205299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.12642274006293699</v>
+      </c>
+      <c r="C23">
+        <v>0.107693803546092</v>
+      </c>
+      <c r="D23">
+        <v>0.11289870239593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.146506047672506</v>
+      </c>
+      <c r="C24">
+        <v>0.112815198493813</v>
+      </c>
+      <c r="D24">
+        <v>0.118989394734745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.16033455807571401</v>
+      </c>
+      <c r="C25">
+        <v>0.130701165857673</v>
+      </c>
+      <c r="D25">
+        <v>0.14067829126318099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.17062677845176</v>
+      </c>
+      <c r="C26">
+        <v>0.15856798969395</v>
+      </c>
+      <c r="D26">
+        <v>0.17466234959995899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.14866751755574201</v>
+      </c>
+      <c r="C27">
+        <v>0.17695174647154099</v>
+      </c>
+      <c r="D27">
+        <v>0.19784617288825099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.119522838761358</v>
+      </c>
+      <c r="C28">
+        <v>0.18743752538015601</v>
+      </c>
+      <c r="D28">
+        <v>0.20993591804240799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.117761979902788</v>
+      </c>
+      <c r="C29">
+        <v>0.18473151081505201</v>
+      </c>
+      <c r="D29">
+        <v>0.19768133368337901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.10985979569453599</v>
+      </c>
+      <c r="C30">
+        <v>0.18449974957030299</v>
+      </c>
+      <c r="D30">
+        <v>0.19309724158663599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9.3994610786292898E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.160832159026639</v>
+      </c>
+      <c r="D31">
+        <v>0.165260942503273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>8.2657878328826803E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.14375608640642401</v>
+      </c>
+      <c r="D32">
+        <v>0.147974134589409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>7.0108896178600305E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.13527243649766099</v>
+      </c>
+      <c r="D33">
+        <v>0.13770757885403501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>5.3058358261357998E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.117605984910267</v>
+      </c>
+      <c r="D34">
+        <v>0.119876969369896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4.0439735684247198E-2</v>
+      </c>
+      <c r="C35">
+        <v>9.3317362222080702E-2</v>
+      </c>
+      <c r="D35">
+        <v>9.5359170834607002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3.2801707031805398E-2</v>
+      </c>
+      <c r="C36">
+        <v>7.5477506015948603E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.7347848290969204E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2.5504964532982899E-2</v>
+      </c>
+      <c r="C37">
+        <v>6.2580818474223102E-2</v>
+      </c>
+      <c r="D37">
+        <v>6.4230917222877507E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.98435968700576E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.2866158677254002E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.3011961432631999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.57041597951562E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.2028137115791501E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.2084101724209299E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.3390909255966499E-2</v>
+      </c>
+      <c r="C40">
+        <v>1.76068891712555E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.7655561113203402E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.1233202985530899E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.45263496462807E-2</v>
+      </c>
+      <c r="D41">
+        <v>1.4578006087183499E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>8.8757070745765203E-3</v>
+      </c>
+      <c r="C42">
+        <v>1.17723942761019E-2</v>
+      </c>
+      <c r="D42">
+        <v>1.18211450739815E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>7.3189633638252498E-3</v>
+      </c>
+      <c r="C43">
+        <v>8.3501158188588106E-3</v>
+      </c>
+      <c r="D43">
+        <v>8.3559279422954404E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5.8305051407526697E-3</v>
+      </c>
+      <c r="C44">
+        <v>6.9292572470656599E-3</v>
+      </c>
+      <c r="D44">
+        <v>6.93320058388904E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>4.9045997724364602E-3</v>
+      </c>
+      <c r="C45">
+        <v>6.0096601468858802E-3</v>
+      </c>
+      <c r="D45">
+        <v>6.0121388089101196E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>4.8626826855562404E-3</v>
+      </c>
+      <c r="C46">
+        <v>5.5390402041504997E-3</v>
+      </c>
+      <c r="D46">
+        <v>5.5428623395479002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>4.84421448957817E-3</v>
+      </c>
+      <c r="C47">
+        <v>5.3089523009958303E-3</v>
+      </c>
+      <c r="D47">
+        <v>5.3141451387082803E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.0432049676673004E-3</v>
+      </c>
+      <c r="C48">
+        <v>4.20178648745288E-3</v>
+      </c>
+      <c r="D48">
+        <v>4.2125217675326896E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3.3075068951035E-3</v>
+      </c>
+      <c r="C49">
+        <v>3.43933962403222E-3</v>
+      </c>
+      <c r="D49">
+        <v>3.44811662617211E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3.6032558138658901E-3</v>
+      </c>
+      <c r="C50">
+        <v>3.29931804858023E-3</v>
+      </c>
+      <c r="D50">
+        <v>3.3111588684232099E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.3192297841930802E-3</v>
+      </c>
+      <c r="C51">
+        <v>3.3043228206049999E-3</v>
+      </c>
+      <c r="D51">
+        <v>3.3216175462652199E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>4.5649437664463397E-3</v>
+      </c>
+      <c r="C52">
+        <v>3.2659879967599599E-3</v>
+      </c>
+      <c r="D52">
+        <v>3.2850575448307401E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>4.3530718024311103E-3</v>
+      </c>
+      <c r="C53">
+        <v>3.8478622188649401E-3</v>
+      </c>
+      <c r="D53">
+        <v>3.8847079192644899E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>4.3584242136230902E-3</v>
+      </c>
+      <c r="C54">
+        <v>4.0143716657078101E-3</v>
+      </c>
+      <c r="D54">
+        <v>4.0511900608837196E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>4.8387949933541502E-3</v>
+      </c>
+      <c r="C55">
+        <v>4.0365999560854097E-3</v>
+      </c>
+      <c r="D55">
+        <v>4.07766495525107E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.6691049551632596E-3</v>
+      </c>
+      <c r="C56">
+        <v>4.3723014431119797E-3</v>
+      </c>
+      <c r="D56">
+        <v>4.4205731746556499E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>6.4611161669095299E-3</v>
+      </c>
+      <c r="C57">
+        <v>4.7617637173694403E-3</v>
+      </c>
+      <c r="D57">
+        <v>4.81687868583827E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7.3002979996534901E-3</v>
+      </c>
+      <c r="C58">
+        <v>7.5645092171865496E-3</v>
+      </c>
+      <c r="D58">
+        <v>7.6904904376784598E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>8.09433746894179E-3</v>
+      </c>
+      <c r="C59">
+        <v>8.3872864359400608E-3</v>
+      </c>
+      <c r="D59">
+        <v>8.5269703931494904E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>8.4450415513439604E-3</v>
+      </c>
+      <c r="C60">
+        <v>8.7506831444002699E-3</v>
+      </c>
+      <c r="D60">
+        <v>8.8964192008974905E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>9.1121829375549902E-3</v>
+      </c>
+      <c r="C61">
+        <v>9.4419696049530908E-3</v>
+      </c>
+      <c r="D61">
+        <v>9.5992185183360404E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
         <v>1.0687707054045601E-2</v>
       </c>
       <c r="C62">
@@ -33737,6 +34623,1926 @@
       </c>
       <c r="D62">
         <v>1.12589525665558E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EC4D74-AF1F-6C49-97A7-E3F4BBC34834}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>6.54119145578459E-4</v>
+      </c>
+      <c r="D1">
+        <v>7.1577508937547402E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.23600975512939801</v>
+      </c>
+      <c r="C2">
+        <v>8.5983193070838598E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.8746416692565E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.481599928504226</v>
+      </c>
+      <c r="C3">
+        <v>0.254528716748325</v>
+      </c>
+      <c r="D3">
+        <v>0.27218169476276899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.38219985235220699</v>
+      </c>
+      <c r="C4">
+        <v>0.39106350750166902</v>
+      </c>
+      <c r="D4">
+        <v>0.42111116472566501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.24312576760224699</v>
+      </c>
+      <c r="C5">
+        <v>0.36951597225738703</v>
+      </c>
+      <c r="D5">
+        <v>0.39289404020258001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.12600307003955299</v>
+      </c>
+      <c r="C6">
+        <v>0.318109950285277</v>
+      </c>
+      <c r="D6">
+        <v>0.34270891195921199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.7420115232201006E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.25252256313555699</v>
+      </c>
+      <c r="D7">
+        <v>0.27687505110799299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.15202042950231301</v>
+      </c>
+      <c r="C8">
+        <v>0.18215571315405099</v>
+      </c>
+      <c r="D8">
+        <v>0.19860726789517499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.25658062814510701</v>
+      </c>
+      <c r="C9">
+        <v>0.18339462607902801</v>
+      </c>
+      <c r="D9">
+        <v>0.19798487423858499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.384942776145132</v>
+      </c>
+      <c r="C10">
+        <v>0.16780612494219699</v>
+      </c>
+      <c r="D10">
+        <v>0.17568894796292001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.34184915443775499</v>
+      </c>
+      <c r="C11">
+        <v>0.19440266913747201</v>
+      </c>
+      <c r="D11">
+        <v>0.20103541677999301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.165389326085017</v>
+      </c>
+      <c r="C12">
+        <v>0.23681296491718001</v>
+      </c>
+      <c r="D12">
+        <v>0.24901939847511401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.120698235365001</v>
+      </c>
+      <c r="C13">
+        <v>0.24501306268901299</v>
+      </c>
+      <c r="D13">
+        <v>0.26213827016304397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.15249809473978701</v>
+      </c>
+      <c r="C14">
+        <v>0.23800544648331901</v>
+      </c>
+      <c r="D14">
+        <v>0.25321584683696902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.176903800020243</v>
+      </c>
+      <c r="C15">
+        <v>0.217209065229127</v>
+      </c>
+      <c r="D15">
+        <v>0.229414499135219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.13239649179687801</v>
+      </c>
+      <c r="C16">
+        <v>0.20607444039849801</v>
+      </c>
+      <c r="D16">
+        <v>0.21787357889982001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8.4728451752043202E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.21664141123994801</v>
+      </c>
+      <c r="D17">
+        <v>0.22941604388654199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5.2383005196207803E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.18734029445513301</v>
+      </c>
+      <c r="D18">
+        <v>0.20088487143571199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.5302333995638901E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.14337433812749301</v>
+      </c>
+      <c r="D19">
+        <v>0.15444478561314401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.8331331608841199E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.111935823856983</v>
+      </c>
+      <c r="D20">
+        <v>0.122646510427529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2.6836157830208599E-2</v>
+      </c>
+      <c r="C21">
+        <v>8.7258670438451494E-2</v>
+      </c>
+      <c r="D21">
+        <v>9.7468896606940497E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2.24053051650508E-2</v>
+      </c>
+      <c r="C22">
+        <v>6.42043576132941E-2</v>
+      </c>
+      <c r="D22">
+        <v>7.1842298558561696E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9.4027508127146296E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.4206958579567803E-2</v>
+      </c>
+      <c r="D23">
+        <v>6.0164278449657597E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5.9841643421230098E-3</v>
+      </c>
+      <c r="C24">
+        <v>4.3430788960633203E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.7749317034385702E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3.5959251213111901E-3</v>
+      </c>
+      <c r="C25">
+        <v>3.3481504603737999E-2</v>
+      </c>
+      <c r="D25">
+        <v>3.6652246514331598E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3.67038743782278E-3</v>
+      </c>
+      <c r="C26">
+        <v>2.50642417157807E-2</v>
+      </c>
+      <c r="D26">
+        <v>2.77882066622781E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3.9424551177052996E-3</v>
+      </c>
+      <c r="C27">
+        <v>1.4530132595974901E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.6244802787273201E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2.8800250840945699E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.9560166212503201E-3</v>
+      </c>
+      <c r="D28">
+        <v>8.85625461153694E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2.3527092092808801E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.1425280837529503E-3</v>
+      </c>
+      <c r="D29">
+        <v>7.9361732306992994E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.98470493949154E-3</v>
+      </c>
+      <c r="C30">
+        <v>6.38048934392691E-3</v>
+      </c>
+      <c r="D30">
+        <v>7.0928490705839597E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.29786149407024E-3</v>
+      </c>
+      <c r="C31">
+        <v>4.9028023339863303E-3</v>
+      </c>
+      <c r="D31">
+        <v>5.4271635897526196E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.3264494213353099E-3</v>
+      </c>
+      <c r="C32">
+        <v>4.0971437924520104E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.4733682199476696E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.3436541732361701E-3</v>
+      </c>
+      <c r="C33">
+        <v>3.7948543794657699E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.1462593582958602E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.12155628685473E-3</v>
+      </c>
+      <c r="C34">
+        <v>3.5784836972143999E-3</v>
+      </c>
+      <c r="D34">
+        <v>4.0078672374493597E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.2434625771092799E-3</v>
+      </c>
+      <c r="C35">
+        <v>2.636475144905E-3</v>
+      </c>
+      <c r="D35">
+        <v>2.9496504084522198E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.3873690566310599E-3</v>
+      </c>
+      <c r="C36">
+        <v>1.7099046208440801E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.85134885648636E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.36426183725474E-3</v>
+      </c>
+      <c r="C37">
+        <v>1.42887484345618E-3</v>
+      </c>
+      <c r="D37">
+        <v>1.5250545445321701E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.3915427479696001E-3</v>
+      </c>
+      <c r="C38">
+        <v>1.1933357218708101E-3</v>
+      </c>
+      <c r="D38">
+        <v>1.23152390693764E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.49712487952397E-3</v>
+      </c>
+      <c r="C39">
+        <v>1.37604089978217E-3</v>
+      </c>
+      <c r="D39">
+        <v>1.4353807201406799E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.59963267714858E-3</v>
+      </c>
+      <c r="C40">
+        <v>1.6509152506716501E-3</v>
+      </c>
+      <c r="D40">
+        <v>1.73804780416453E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.7058880055173501E-3</v>
+      </c>
+      <c r="C41">
+        <v>1.6271356226246201E-3</v>
+      </c>
+      <c r="D41">
+        <v>1.73024232941762E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2.2350380580975502E-3</v>
+      </c>
+      <c r="C42">
+        <v>1.65291411132438E-3</v>
+      </c>
+      <c r="D42">
+        <v>1.75953609251991E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2.77863489660235E-3</v>
+      </c>
+      <c r="C43">
+        <v>1.49823416912713E-3</v>
+      </c>
+      <c r="D43">
+        <v>1.5060715412640699E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2.62519389946924E-3</v>
+      </c>
+      <c r="C44">
+        <v>1.4252046561637199E-3</v>
+      </c>
+      <c r="D44">
+        <v>1.4341323105585E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2.93592065054177E-3</v>
+      </c>
+      <c r="C45">
+        <v>1.4839474587905301E-3</v>
+      </c>
+      <c r="D45">
+        <v>1.49301677571623E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3.7720306100677099E-3</v>
+      </c>
+      <c r="C46">
+        <v>1.8523073933074999E-3</v>
+      </c>
+      <c r="D46">
+        <v>1.8644657709329701E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3.9106436842846802E-3</v>
+      </c>
+      <c r="C47">
+        <v>2.1549558241707499E-3</v>
+      </c>
+      <c r="D47">
+        <v>2.1712680018395299E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>4.06020376146932E-3</v>
+      </c>
+      <c r="C48">
+        <v>2.8637003766436701E-3</v>
+      </c>
+      <c r="D48">
+        <v>2.8694258280459102E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>4.4575533345729201E-3</v>
+      </c>
+      <c r="C49">
+        <v>3.2443407914702501E-3</v>
+      </c>
+      <c r="D49">
+        <v>3.2489655130196402E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>4.5082010381035601E-3</v>
+      </c>
+      <c r="C50">
+        <v>3.2219603714855002E-3</v>
+      </c>
+      <c r="D50">
+        <v>3.2234724429033301E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4.6941596836087597E-3</v>
+      </c>
+      <c r="C51">
+        <v>3.18298730466525E-3</v>
+      </c>
+      <c r="D51">
+        <v>3.1818102334241899E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5.1942686215322798E-3</v>
+      </c>
+      <c r="C52">
+        <v>3.6006222801516102E-3</v>
+      </c>
+      <c r="D52">
+        <v>3.5993737882712099E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>6.1086531694535297E-3</v>
+      </c>
+      <c r="C53">
+        <v>5.2691526493938504E-3</v>
+      </c>
+      <c r="D53">
+        <v>5.2482097386121499E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>5.9271645571383801E-3</v>
+      </c>
+      <c r="C54">
+        <v>5.1661824995790102E-3</v>
+      </c>
+      <c r="D54">
+        <v>5.1459583677970202E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>4.8714305093344101E-3</v>
+      </c>
+      <c r="C55">
+        <v>5.1878818236924902E-3</v>
+      </c>
+      <c r="D55">
+        <v>5.1729575694230701E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.0765262997065604E-3</v>
+      </c>
+      <c r="C56">
+        <v>5.8384863239413299E-3</v>
+      </c>
+      <c r="D56">
+        <v>5.8237126748167398E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>6.13129513767502E-3</v>
+      </c>
+      <c r="C57">
+        <v>6.1971575082756802E-3</v>
+      </c>
+      <c r="D57">
+        <v>6.17777434582712E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>5.8725691177965497E-3</v>
+      </c>
+      <c r="C58">
+        <v>6.0944957377386802E-3</v>
+      </c>
+      <c r="D58">
+        <v>6.0469535233354001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4.5808030477013702E-3</v>
+      </c>
+      <c r="C59">
+        <v>4.7539133366759703E-3</v>
+      </c>
+      <c r="D59">
+        <v>4.71682879730823E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4.0892842898111103E-3</v>
+      </c>
+      <c r="C60">
+        <v>4.2438198980322096E-3</v>
+      </c>
+      <c r="D60">
+        <v>4.2107145183312902E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3.7374147822001498E-3</v>
+      </c>
+      <c r="C61">
+        <v>3.8786531079299698E-3</v>
+      </c>
+      <c r="D61">
+        <v>3.84839633762725E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3.0637750230149102E-3</v>
+      </c>
+      <c r="C62">
+        <v>3.1795562461032199E-3</v>
+      </c>
+      <c r="D62">
+        <v>3.15475302180612E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC4E6B2-0DBC-A246-8A79-2DA83D865339}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-12</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.6557675406279996E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.6893031760140105E-7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.8262176142058404E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.6282356292357198E-6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6616325428084696E-6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.7979806276597397E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.2475047024485999E-9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3290753259260801E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.9399616009195602E-6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.07606377682518E-6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.09750049666531E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.50973281281512E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.2867516070153299E-6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.3534459928364801E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.50770064094387E-6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.52400851157197E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-3</v>
+      </c>
+      <c r="B10">
+        <v>1.8074828165232901E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.4290865984623E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.47854584589947E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.4992375598130002E-6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.6070657275149697E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.6983434232440301E-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.75122489436049E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1.6910512315216899E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.4695682611448E-4</v>
+      </c>
+      <c r="D13">
+        <v>1.5047120373022399E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0278279375587699E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.20236362361804E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2.3743471539020299E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.64824861652093E-3</v>
+      </c>
+      <c r="D15">
+        <v>3.7170743978039399E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>7.8609749189763503E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.2256354599530001E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.2498760970084399E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>7.5652777507115299E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.8358245692399099E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.8892213369708699E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>3.3188367986663803E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.56849399565196E-2</v>
+      </c>
+      <c r="D18">
+        <v>2.65255740236808E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3.5192693348695098E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.5948291423030497E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.15403414538679E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7.9117799054871901E-2</v>
+      </c>
+      <c r="C20">
+        <v>7.9148421767346197E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.0782330061274397E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>9.6755369342158198E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.101825769996222</v>
+      </c>
+      <c r="D21">
+        <v>0.14401805762910799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>0.132099946677879</v>
+      </c>
+      <c r="C22">
+        <v>0.142569410242296</v>
+      </c>
+      <c r="D22">
+        <v>0.224643429046118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.13650997104168699</v>
+      </c>
+      <c r="C23">
+        <v>0.157321714483386</v>
+      </c>
+      <c r="D23">
+        <v>0.25884097115087401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>9.3176897148400398E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.12984936608428399</v>
+      </c>
+      <c r="D24">
+        <v>0.18786391219190801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>7.7928282200506696E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.5097344157332703E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.116558507176021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>6.8451652742997901E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.0918225842754007E-2</v>
+      </c>
+      <c r="D26">
+        <v>8.4815356721406096E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>4.1789605051716902E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.8618057306697E-2</v>
+      </c>
+      <c r="D27">
+        <v>5.9149444551032798E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>1.7086666119903698E-2</v>
+      </c>
+      <c r="C28">
+        <v>2.1811817225265599E-2</v>
+      </c>
+      <c r="D28">
+        <v>2.5467989606405901E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>1.4132293209946901E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.0429870947925E-2</v>
+      </c>
+      <c r="D29">
+        <v>1.14953351758355E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>1.2303471130235199E-2</v>
+      </c>
+      <c r="C30">
+        <v>6.9337518996748703E-3</v>
+      </c>
+      <c r="D30">
+        <v>7.8401921979839306E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>3.59072238000479E-3</v>
+      </c>
+      <c r="C31">
+        <v>2.6128776738562902E-3</v>
+      </c>
+      <c r="D31">
+        <v>3.0484044240994602E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>1.6166086653179499E-4</v>
+      </c>
+      <c r="C32">
+        <v>4.23263622494579E-4</v>
+      </c>
+      <c r="D32">
+        <v>4.5674892922341603E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>1.57036280624434E-3</v>
+      </c>
+      <c r="C33">
+        <v>2.5987659001600001E-4</v>
+      </c>
+      <c r="D33">
+        <v>2.6464001602711297E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>2.2139423642753599E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.9184089751067897E-4</v>
+      </c>
+      <c r="D34">
+        <v>2.9802461735764502E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>4.8042442038453899E-4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6.6047168321203804E-5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.8659842285059795E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.1258644600646901E-6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.3602101152792098E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.5535864128670701E-7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.6690592794135201E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.30968082534115E-5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7.7039335451120795E-6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.8628728985484905E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6.8521233306410006E-8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.9200945783189398E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.7328843972868701E-6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.00240414081996E-6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.02293823503462E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.88826860131327E-6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.7479913449122297E-7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.8043147338808702E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.20431399932394E-9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.2526179712573899E-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.79261280242037E-6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.0060903464153702E-7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0675825586634498E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3.1259463536178199E-10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.1720098769838599E-10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.57807664105769E-12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.8201145122845198E-12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.2163920940232499E-7</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.7209655139499298E-8</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.79704473048767E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5.15281336118291E-12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5.2121640337076699E-12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.0571019354885899E-8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5.1241148130154697E-9</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.2289629431934399E-9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.4792660115519393E-9</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.70795956266903E-9</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.7428865572988499E-9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.41553435639707E-14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.4610535004066999E-14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8.0860497742030406E-9</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.6259595447820699E-9</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.6592329843412301E-9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>39</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9.3258734068513508E-16</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.0214051826551501E-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6.2433391789795706E-14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6.29829521869851E-14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9.9970540179405097E-10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.5118565560866299E-10</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2.5632679312437099E-10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.12944115066216E-15</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.22658566531686E-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.3788978292517E-10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.46492140534946E-11</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.5358364384544603E-11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3.8245351330345701E-11</v>
+      </c>
+      <c r="C57" s="1">
+        <v>9.6095492674307695E-12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9.8061697650918798E-12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.02695629777827E-15</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.13797860024079E-15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3.64721586265658E-11</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.2218596504946299E-11</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.2468785263545599E-11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9.2518585385429802E-17</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>48</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.35693925231963E-16</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.72701359386135E-16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4.5090597922126399E-12</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.5105139361537701E-12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.5414984103993499E-12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.7755575615628901E-17</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.3877787807814501E-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>51</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6.2169713821447496E-13</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3.1273594824909999E-13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.1903646391384801E-13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>52</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.72417635724291E-13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>8.6888829464728598E-14</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8.8665186304128899E-14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>53</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>9.2518585385429198E-17</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5.5511151231257402E-17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>54</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.6420198534206101E-13</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8.2600593032111798E-14</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8.4127149690971401E-14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4.9960036108132103E-16</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.3306690738754701E-16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>56</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>57</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.9567680809018201E-14</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.9734214262712E-14</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.9900747716405701E-14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>58</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>59</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3.8395212934953396E-15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.4139358007223702E-15</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4.2280993521141499E-15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>60</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
